--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_12_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_12_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52219.87462788755</v>
+        <v>10391755.05094962</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52219.87462788755</v>
+        <v>10391755.05094962</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>226.9347585163877</v>
+        <v>44636.7179053847</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>226.9347585163877</v>
+        <v>44636.7179053847</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189070864.48697</v>
+        <v>48693176.80693588</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9932.430960835894</v>
+        <v>1089776.988830279</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19139.5808041697</v>
+        <v>2065794.195088039</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28346.7306475035</v>
+        <v>3041811.401345802</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37903.45956512347</v>
+        <v>4030877.218512654</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47394.61757365253</v>
+        <v>5006894.424770416</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56885.77558218157</v>
+        <v>5982911.631028176</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66376.93359071063</v>
+        <v>6958928.837285933</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75868.09159923968</v>
+        <v>7934946.043543691</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>85359.24960776872</v>
+        <v>8910963.249801446</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>94850.40761629777</v>
+        <v>9886980.456059204</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>104341.5656248268</v>
+        <v>10862997.66231697</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>113509.7132765475</v>
+        <v>11825966.25766565</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>122743.431837359</v>
+        <v>12801983.46392341</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>132029.4423810368</v>
+        <v>13771081.97890585</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>141315.4529247145</v>
+        <v>14740180.49388828</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>350</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>350</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>138</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
